--- a/思路.xlsx
+++ b/思路.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\功夫军团\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\code\unity\KFA_DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9135207-DF90-4A2C-9C1C-CD9048054879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E44C09-D4F1-4272-BA14-9CEC91BBB978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1005" windowWidth="28050" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="1005" windowWidth="28050" windowHeight="16065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建筑、兵种、科技" sheetId="1" r:id="rId1"/>
     <sheet name="兵种数值" sheetId="3" r:id="rId2"/>
-    <sheet name="飞行物" sheetId="2" r:id="rId3"/>
+    <sheet name="科技数值" sheetId="4" r:id="rId3"/>
+    <sheet name="飞行物" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="264">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,18 +837,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肉搏、兵刃、近程、远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肉搏、兵刃、气功、近程、远程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肉搏、近程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建造时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -934,6 +918,170 @@
   </si>
   <si>
     <t>全真宗师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降魔弟子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降魔剑客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度特训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量特训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力特训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易筋经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯云纵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花聚顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一气化三清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总回本时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到回本需要时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60（双兵营24和尚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子攻击+1（价值提高1/7），原本少林弟子每个亏10，现在只亏4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子/武僧攻速提高10%，每个少林弟子再赚5.14粮，武僧赚20粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林弟子攻击+1（价值提高1/7），原本少林弟子每个亏4.3，现在赚1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60（双兵营30和尚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60（双兵营8弟子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当攻击+2，相当于20%，每个弟子赚24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉搏气功抗性+2，不好度量。防守向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁太极剑客。之前武当弟子每秒亏2，现在太极剑客不亏，相当于每秒赚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗器大师每秒赚2，如果算上九阳功，相当于每秒赚4+，取均值3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当派兵种攻击+3，各类抗性+1。加在暗器大师上巨强无比，每秒赚5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全真在生命低于20%时，攻击攻速移速提升50%，相当于总价值+25%，平均每秒赚2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到近战伤害，刷新攻击冷却。大概挨打5-6次左右，可以发动5-6次。价值与对手的兵种和攻速相关，无法度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对性兵种，大北斗七式相性很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武当移速+20%。对远程没有意义，使远程敌人尽快进入近战射程，大概少挨半箭，血量提升15%。太极剑客价值提升15%，每秒多赚1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑移速+20%，相当于少挨一箭，这个价值比梯云纵要大，对于昆仑弟子、迅雷剑客有意义，每秒赚3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝎尾钩（待改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由每秒亏2变为每秒赚0，相当于每秒赚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒赚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉攻击+1，各类抗性+1。攻击力价值：*1.16，抗性价值*1.1，每秒价值1-2之间，取1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏虎掌法（待改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峨眉近战抗性+3。针对性强，无法度量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,7 +1143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1003,17 +1151,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1368,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -2463,15 +2657,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E96EC-3C9B-41E2-85C7-7D65D4ADB0B5}">
-  <dimension ref="A2:S72"/>
+  <dimension ref="A2:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K2">
         <v>0.8</v>
       </c>
@@ -2482,90 +2676,90 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="P5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="P6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>212</v>
       </c>
-      <c r="Q5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>196</v>
       </c>
       <c r="N12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" t="s">
-        <v>221</v>
+      <c r="G13" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" t="s">
         <v>205</v>
       </c>
-      <c r="J13" t="s">
+      <c r="P13" t="s">
         <v>206</v>
       </c>
-      <c r="L13" t="s">
-        <v>218</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
         <v>207</v>
       </c>
-      <c r="Q13" t="s">
-        <v>208</v>
-      </c>
-      <c r="S13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>88</v>
       </c>
@@ -2575,6 +2769,7 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14" s="9"/>
       <c r="H14">
         <v>2.5</v>
       </c>
@@ -2591,209 +2786,413 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="Q14">
+      <c r="P14">
         <v>2</v>
       </c>
-      <c r="S14">
+      <c r="R14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
       <c r="I15">
-        <f t="shared" ref="I15:I65" si="0">H15*50</f>
+        <f t="shared" ref="I15:I41" si="0">H15*50</f>
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" s="9">
+        <v>120</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G17" s="9">
+        <v>200</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L17">
+        <v>3.2</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="P17">
         <v>1</v>
       </c>
-      <c r="N17">
+      <c r="R17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G19" s="9">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>200</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
+      <c r="P20">
         <v>1</v>
       </c>
-      <c r="S20">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>480</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>1.25</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="P21">
+        <v>0.8</v>
+      </c>
+      <c r="R21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23">
+        <v>150</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
+      <c r="G23" s="9">
+        <v>120</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>30</v>
-      </c>
-      <c r="O23">
-        <v>36</v>
-      </c>
-      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>220</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" s="9">
+        <v>320</v>
+      </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>0.75</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25">
+        <v>250</v>
+      </c>
+      <c r="F25">
+        <v>350</v>
+      </c>
+      <c r="G25" s="9">
+        <v>720</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
       <c r="I25">
         <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="P25">
+        <v>1.2</v>
+      </c>
+      <c r="R25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>204</v>
+      <c r="G27" s="9">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G28" s="9">
+        <v>200</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2801,582 +3200,386 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
-      <c r="Q28">
+      <c r="P28">
         <v>1</v>
       </c>
-      <c r="S28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>160</v>
+      </c>
+      <c r="F29">
+        <v>125</v>
+      </c>
+      <c r="G29" s="9">
+        <v>285</v>
+      </c>
+      <c r="H29">
+        <v>28.8</v>
+      </c>
       <c r="I29">
         <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>2.5</v>
+      </c>
+      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30">
+        <v>450</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G30" s="9">
+        <v>540</v>
+      </c>
+      <c r="H30">
+        <v>45</v>
+      </c>
       <c r="I30">
         <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="J30">
+        <v>54</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31">
+      <c r="P30">
+        <v>0.8</v>
+      </c>
+      <c r="R30">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>200</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="G33" s="9">
+        <v>80</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+      <c r="G34" s="9">
+        <v>200</v>
+      </c>
+      <c r="H34">
         <v>20</v>
       </c>
-      <c r="I31">
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J31">
-        <v>14</v>
-      </c>
-      <c r="L31">
-        <v>0.8</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34">
-        <v>400</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="J34">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>44</v>
+      </c>
+      <c r="P34">
+        <v>1.2</v>
+      </c>
+      <c r="R34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>150</v>
+      </c>
+      <c r="F35">
+        <v>250</v>
+      </c>
+      <c r="G35" s="9">
+        <v>480</v>
+      </c>
+      <c r="H35">
         <v>40</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J34">
-        <v>38</v>
-      </c>
-      <c r="L34">
-        <v>1.25</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>6</v>
-      </c>
-      <c r="Q34">
-        <v>0.8</v>
-      </c>
-      <c r="S34">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+      <c r="G36" s="9">
+        <v>480</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
       <c r="I36">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>0.8</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38">
+        <v>75</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>202</v>
+      <c r="G38" s="9">
+        <v>60</v>
+      </c>
+      <c r="H38">
+        <v>7.5</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39" s="9">
+        <v>400</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
       <c r="I39">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J39">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <v>1.3</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40">
+        <v>720</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G40" s="9">
+        <v>864</v>
+      </c>
+      <c r="H40">
+        <v>72</v>
+      </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>3600</v>
+      </c>
+      <c r="J40">
+        <v>36</v>
+      </c>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>0.8</v>
+      </c>
+      <c r="R40">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41">
+        <v>550</v>
+      </c>
+      <c r="F41">
+        <v>550</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1320</v>
+      </c>
+      <c r="H41">
+        <v>110</v>
+      </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>199</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" t="s">
-        <v>220</v>
-      </c>
-      <c r="F50" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" t="s">
-        <v>205</v>
-      </c>
-      <c r="I50" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" t="s">
-        <v>206</v>
-      </c>
-      <c r="L50" t="s">
-        <v>218</v>
-      </c>
-      <c r="N50" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>208</v>
-      </c>
-      <c r="S50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51">
-        <v>80</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>8</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J51">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>6</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="S51">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53">
+        <v>5500</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>0.8</v>
+      </c>
+      <c r="R41">
         <v>100</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>20</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="J53">
-        <v>16</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>6</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="S53">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55">
-        <v>160</v>
-      </c>
-      <c r="F55">
-        <v>125</v>
-      </c>
-      <c r="H55">
-        <v>28.8</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>1440</v>
-      </c>
-      <c r="J55">
-        <v>14</v>
-      </c>
-      <c r="L55">
-        <v>2.5</v>
-      </c>
-      <c r="N55">
-        <v>24</v>
-      </c>
-      <c r="O55">
-        <v>30</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>224</v>
-      </c>
-      <c r="E57">
-        <v>450</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>45</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="J57">
-        <v>54</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0.8</v>
-      </c>
-      <c r="S57">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="J62">
-        <v>9</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="S62">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63">
-        <v>50</v>
-      </c>
-      <c r="F63">
-        <v>150</v>
-      </c>
-      <c r="H63">
-        <v>20</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="J63">
-        <v>26</v>
-      </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="N63">
-        <v>44</v>
-      </c>
-      <c r="O63">
-        <v>50</v>
-      </c>
-      <c r="Q63">
-        <v>1.2</v>
-      </c>
-      <c r="S63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64">
-        <v>80</v>
-      </c>
-      <c r="F64">
-        <v>200</v>
-      </c>
-      <c r="H64">
-        <v>28</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="J64">
-        <v>20</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>11</v>
-      </c>
-      <c r="O64">
-        <v>17</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="S64">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65">
-        <v>100</v>
-      </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="H65">
-        <v>40</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J65">
-        <v>20</v>
-      </c>
-      <c r="L65">
-        <v>0.8</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="S65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3387,6 +3590,671 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA30155-A165-48B7-AEA1-1A0FF5AC597D}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7">
+        <v>120</v>
+      </c>
+      <c r="C12" s="6">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="6">
+        <v>140</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="7">
+        <v>120</v>
+      </c>
+      <c r="C13" s="6">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="6">
+        <v>140</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="7">
+        <v>240</v>
+      </c>
+      <c r="C14" s="6">
+        <v>90</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="6">
+        <v>155</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="6">
+        <v>90</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>200</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="7">
+        <v>120</v>
+      </c>
+      <c r="C16" s="6">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="6">
+        <v>190</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="6">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>190</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="7">
+        <v>180</v>
+      </c>
+      <c r="C18" s="6">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>240</v>
+      </c>
+      <c r="G18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="7">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6">
+        <v>85</v>
+      </c>
+      <c r="D19" s="6">
+        <v>65</v>
+      </c>
+      <c r="E19" s="6">
+        <v>100</v>
+      </c>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7">
+        <v>120</v>
+      </c>
+      <c r="C20" s="6">
+        <v>60</v>
+      </c>
+      <c r="D20" s="6">
+        <v>60</v>
+      </c>
+      <c r="E20" s="6">
+        <v>60</v>
+      </c>
+      <c r="F20" s="6">
+        <v>300</v>
+      </c>
+      <c r="G20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="7">
+        <v>180</v>
+      </c>
+      <c r="C21" s="6">
+        <v>140</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6">
+        <v>400</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7">
+        <v>200</v>
+      </c>
+      <c r="C22" s="6">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6">
+        <v>200</v>
+      </c>
+      <c r="F22" s="6">
+        <v>300</v>
+      </c>
+      <c r="G22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="6">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>500</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="6">
+        <v>120</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>400</v>
+      </c>
+      <c r="G24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="7">
+        <v>120</v>
+      </c>
+      <c r="C25" s="6">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6">
+        <v>60</v>
+      </c>
+      <c r="E25" s="6">
+        <v>240</v>
+      </c>
+      <c r="F25" s="6">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="7">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="7">
+        <v>210</v>
+      </c>
+      <c r="C27" s="6">
+        <v>90</v>
+      </c>
+      <c r="D27" s="6">
+        <v>120</v>
+      </c>
+      <c r="E27" s="6">
+        <v>80</v>
+      </c>
+      <c r="F27" s="6">
+        <v>400</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="7">
+        <v>210</v>
+      </c>
+      <c r="C28" s="6">
+        <v>90</v>
+      </c>
+      <c r="D28" s="6">
+        <v>120</v>
+      </c>
+      <c r="E28" s="6">
+        <v>80</v>
+      </c>
+      <c r="F28" s="6">
+        <v>400</v>
+      </c>
+      <c r="G28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="7">
+        <v>150</v>
+      </c>
+      <c r="C29" s="6">
+        <v>60</v>
+      </c>
+      <c r="D29" s="6">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6">
+        <v>175</v>
+      </c>
+      <c r="F29" s="6">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="6">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>200</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="7">
+        <v>120</v>
+      </c>
+      <c r="C31" s="6">
+        <v>60</v>
+      </c>
+      <c r="D31" s="6">
+        <v>60</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="7">
+        <v>210</v>
+      </c>
+      <c r="C32" s="6">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6">
+        <v>120</v>
+      </c>
+      <c r="E32" s="6">
+        <v>300</v>
+      </c>
+      <c r="F32" s="6">
+        <v>180</v>
+      </c>
+      <c r="G32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F7C9-985A-4B00-AB40-36651594DA68}">
   <dimension ref="C9:J33"/>
   <sheetViews>

--- a/思路.xlsx
+++ b/思路.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\code\unity\KFA_DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\KFA_DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E44C09-D4F1-4272-BA14-9CEC91BBB978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B949D0-B2D7-4C78-9799-460F79B75DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1005" windowWidth="28050" windowHeight="16065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1650" windowWidth="35490" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建筑、兵种、科技" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="284">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1082,6 +1091,86 @@
   </si>
   <si>
     <t>峨眉近战抗性+3。针对性强，无法度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林各类抗性+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖刺城墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万箭齐发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘地三尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全第一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要锐器制造，建筑被敌人摧毁后，向周围所有敌人发射箭矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性建筑在建造时减伤90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许在任何地方建造矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕地改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许在任何地方建造农场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有兵种攻击+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因突变(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸毒暗器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑暗器手对敌人额外造成最大生命值10%的伤害，这些伤害忽略抗性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁武装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使官兵的远程抗性+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁卫士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1188,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1192,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1208,6 +1312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1560,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1746,6 +1852,12 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
+      <c r="D36" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="L36" t="s">
         <v>95</v>
       </c>
@@ -1790,6 +1902,13 @@
       <c r="F41" t="s">
         <v>27</v>
       </c>
+      <c r="N41" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -1799,17 +1918,14 @@
       <c r="F42" t="s">
         <v>28</v>
       </c>
-      <c r="M42" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="F43" t="s">
         <v>93</v>
       </c>
-      <c r="N43" t="s">
-        <v>147</v>
+      <c r="M43" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -1818,10 +1934,7 @@
         <v>15</v>
       </c>
       <c r="N44" t="s">
-        <v>153</v>
-      </c>
-      <c r="P44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -1830,10 +1943,10 @@
         <v>16</v>
       </c>
       <c r="N45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -1842,10 +1955,10 @@
         <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -1853,74 +1966,73 @@
       <c r="F47" t="s">
         <v>18</v>
       </c>
+      <c r="N47" t="s">
+        <v>152</v>
+      </c>
+      <c r="P47" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="M48" t="s">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="M51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="N49" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="N52" t="s">
         <v>155</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="N50" t="s">
-        <v>154</v>
-      </c>
-      <c r="P50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="M52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="N53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N54" t="s">
-        <v>159</v>
-      </c>
-      <c r="P54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N54" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="N55" t="s">
-        <v>162</v>
-      </c>
-      <c r="P55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N55" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>88</v>
       </c>
@@ -1933,16 +2045,34 @@
       <c r="F57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G57" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q57" s="12"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>78</v>
       </c>
-      <c r="M59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>158</v>
+      </c>
+      <c r="P59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>73</v>
       </c>
@@ -1950,13 +2080,13 @@
         <v>74</v>
       </c>
       <c r="N60" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="P60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>75</v>
       </c>
@@ -1967,37 +2097,46 @@
         <v>77</v>
       </c>
       <c r="N61" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="P61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>32</v>
       </c>
-      <c r="N62" t="s">
-        <v>104</v>
-      </c>
-      <c r="P62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N62" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>81</v>
       </c>
-      <c r="N63" t="s">
-        <v>141</v>
-      </c>
-      <c r="P63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N63" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>80</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
@@ -2009,13 +2148,35 @@
       <c r="D66" t="s">
         <v>83</v>
       </c>
+      <c r="M66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>103</v>
+      </c>
+      <c r="P68" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>39</v>
       </c>
-      <c r="M69" t="s">
-        <v>101</v>
+      <c r="N69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
@@ -2026,10 +2187,10 @@
         <v>42</v>
       </c>
       <c r="N70" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.2">
@@ -2042,22 +2203,13 @@
       <c r="F71" t="s">
         <v>51</v>
       </c>
-      <c r="N71" t="s">
-        <v>108</v>
-      </c>
-      <c r="P71" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>32</v>
       </c>
-      <c r="N72" t="s">
-        <v>109</v>
-      </c>
-      <c r="P72" t="s">
-        <v>111</v>
+      <c r="M72" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.2">
@@ -2065,10 +2217,10 @@
         <v>43</v>
       </c>
       <c r="N73" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P73" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.2">
@@ -2076,10 +2228,10 @@
         <v>44</v>
       </c>
       <c r="N74" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="P74" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.2">
@@ -2087,26 +2239,44 @@
         <v>46</v>
       </c>
       <c r="N75" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="P75" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>45</v>
       </c>
+      <c r="N76" t="s">
+        <v>112</v>
+      </c>
+      <c r="P76" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>47</v>
       </c>
+      <c r="N77" t="s">
+        <v>146</v>
+      </c>
+      <c r="P77" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>48</v>
       </c>
+      <c r="N78" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
@@ -2208,11 +2378,12 @@
       <c r="H90" t="s">
         <v>57</v>
       </c>
-      <c r="N90" t="s">
-        <v>117</v>
-      </c>
-      <c r="P90" t="s">
-        <v>144</v>
+      <c r="N90" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
@@ -2220,10 +2391,10 @@
         <v>32</v>
       </c>
       <c r="N91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P91" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
@@ -2231,16 +2402,22 @@
         <v>53</v>
       </c>
       <c r="N92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>54</v>
       </c>
+      <c r="N93" t="s">
+        <v>119</v>
+      </c>
+      <c r="P93" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
@@ -2329,322 +2506,6 @@
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>139050</v>
-      </c>
-      <c r="B120">
-        <v>39790</v>
-      </c>
-      <c r="C120">
-        <v>33808</v>
-      </c>
-      <c r="D120">
-        <v>26690</v>
-      </c>
-      <c r="E120">
-        <v>21636</v>
-      </c>
-      <c r="F120">
-        <v>21470</v>
-      </c>
-      <c r="G120">
-        <v>18766</v>
-      </c>
-      <c r="H120">
-        <v>17736</v>
-      </c>
-      <c r="I120">
-        <v>17306</v>
-      </c>
-      <c r="J120">
-        <v>13712</v>
-      </c>
-      <c r="K120">
-        <v>9794</v>
-      </c>
-      <c r="L120">
-        <v>7602</v>
-      </c>
-      <c r="M120">
-        <v>6356</v>
-      </c>
-      <c r="N120">
-        <v>5114</v>
-      </c>
-      <c r="O120">
-        <v>5078</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>15</v>
-      </c>
-      <c r="B121">
-        <v>22</v>
-      </c>
-      <c r="C121">
-        <v>23</v>
-      </c>
-      <c r="D121">
-        <v>22</v>
-      </c>
-      <c r="E121">
-        <v>7</v>
-      </c>
-      <c r="F121">
-        <v>11</v>
-      </c>
-      <c r="G121">
-        <v>13</v>
-      </c>
-      <c r="H121">
-        <v>14</v>
-      </c>
-      <c r="I121">
-        <v>14</v>
-      </c>
-      <c r="J121">
-        <v>17</v>
-      </c>
-      <c r="K121">
-        <v>5</v>
-      </c>
-      <c r="L121">
-        <v>23</v>
-      </c>
-      <c r="M121">
-        <v>21</v>
-      </c>
-      <c r="N121">
-        <v>12</v>
-      </c>
-      <c r="O121">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>6</v>
-      </c>
-      <c r="B122">
-        <v>17</v>
-      </c>
-      <c r="C122">
-        <v>11</v>
-      </c>
-      <c r="D122">
-        <v>16</v>
-      </c>
-      <c r="E122">
-        <v>8</v>
-      </c>
-      <c r="F122">
-        <v>15</v>
-      </c>
-      <c r="G122">
-        <v>12</v>
-      </c>
-      <c r="H122">
-        <v>9</v>
-      </c>
-      <c r="I122">
-        <v>4</v>
-      </c>
-      <c r="J122">
-        <v>4</v>
-      </c>
-      <c r="K122">
-        <v>5</v>
-      </c>
-      <c r="L122">
-        <v>8</v>
-      </c>
-      <c r="M122">
-        <v>8</v>
-      </c>
-      <c r="N122">
-        <v>14</v>
-      </c>
-      <c r="O122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>3</v>
-      </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <v>4</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123">
-        <v>4</v>
-      </c>
-      <c r="F123">
-        <v>5</v>
-      </c>
-      <c r="G123">
-        <v>5</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>2</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-      <c r="M123">
-        <v>2</v>
-      </c>
-      <c r="N123">
-        <v>5</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <v>4994</v>
-      </c>
-      <c r="C125">
-        <v>4766</v>
-      </c>
-      <c r="D125">
-        <v>3194</v>
-      </c>
-      <c r="E125">
-        <v>3122</v>
-      </c>
-      <c r="F125">
-        <v>2690</v>
-      </c>
-      <c r="G125">
-        <v>1738</v>
-      </c>
-      <c r="H125">
-        <v>1036</v>
-      </c>
-      <c r="I125">
-        <v>674</v>
-      </c>
-      <c r="J125">
-        <v>310</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B126">
-        <v>21</v>
-      </c>
-      <c r="C126">
-        <v>7</v>
-      </c>
-      <c r="D126">
-        <v>16</v>
-      </c>
-      <c r="E126">
-        <v>8</v>
-      </c>
-      <c r="F126">
-        <v>20</v>
-      </c>
-      <c r="G126">
-        <v>14</v>
-      </c>
-      <c r="H126">
-        <v>9</v>
-      </c>
-      <c r="I126">
-        <v>12</v>
-      </c>
-      <c r="J126">
-        <v>9</v>
-      </c>
-      <c r="K126">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B127">
-        <v>13</v>
-      </c>
-      <c r="C127">
-        <v>14</v>
-      </c>
-      <c r="D127">
-        <v>14</v>
-      </c>
-      <c r="E127">
-        <v>17</v>
-      </c>
-      <c r="F127">
-        <v>10</v>
-      </c>
-      <c r="G127">
-        <v>10</v>
-      </c>
-      <c r="H127">
-        <v>11</v>
-      </c>
-      <c r="I127">
-        <v>14</v>
-      </c>
-      <c r="J127">
-        <v>13</v>
-      </c>
-      <c r="K127">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>6</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>5</v>
-      </c>
-      <c r="G128">
-        <v>7</v>
-      </c>
-      <c r="H128">
-        <v>5</v>
-      </c>
-      <c r="I128">
-        <v>7</v>
-      </c>
-      <c r="J128">
-        <v>6</v>
-      </c>
-      <c r="K128">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3593,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA30155-A165-48B7-AEA1-1A0FF5AC597D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3807,6 +3668,9 @@
       </c>
       <c r="F15" s="6">
         <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/思路.xlsx
+++ b/思路.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\KFA_DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\code\unity\KFA_DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B949D0-B2D7-4C78-9799-460F79B75DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA4E586-2AA5-4A51-9941-65D8DC31C346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="1650" windowWidth="35490" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="286">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1158,10 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使官兵的远程抗性+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢铁卫士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,6 +1158,18 @@
   </si>
   <si>
     <t>投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使官兵的远程抗性+2，解锁钢铁卫士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官兵对敌方建筑造成伤害后的2秒内，该建筑受到的治疗量减少80%，解锁投石车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度破坏(pohuai.png)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1830,13 +1829,13 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="C33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
@@ -1844,13 +1843,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="C35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="D36" s="11" t="s">
         <v>265</v>
@@ -1862,19 +1861,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="M37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="N38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="N39" t="s">
         <v>128</v>
@@ -1883,7 +1882,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="N40" t="s">
         <v>137</v>
@@ -1892,7 +1891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>2</v>
       </c>
@@ -1907,10 +1906,10 @@
       </c>
       <c r="O41" s="12"/>
       <c r="P41" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" t="s">
         <v>36</v>
@@ -1919,7 +1918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="F43" t="s">
         <v>93</v>
@@ -1928,7 +1927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="F44" t="s">
         <v>15</v>
@@ -1937,7 +1936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="F45" t="s">
         <v>16</v>
@@ -1949,7 +1948,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="F46" t="s">
         <v>17</v>
@@ -1961,7 +1960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="F47" t="s">
         <v>18</v>
@@ -1973,8 +1972,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
+      <c r="N48" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -2046,13 +2057,13 @@
         <v>87</v>
       </c>
       <c r="G57" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="Q57" s="12"/>
     </row>
@@ -2521,7 +2532,7 @@
   <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/思路.xlsx
+++ b/思路.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\code\unity\KFA_DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\KFA_DEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA4E586-2AA5-4A51-9941-65D8DC31C346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F4AE97-A928-4288-8375-6D50AC51A831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1650" windowWidth="35490" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="675" windowWidth="21885" windowHeight="19350" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建筑、兵种、科技" sheetId="1" r:id="rId1"/>
     <sheet name="兵种数值" sheetId="3" r:id="rId2"/>
     <sheet name="科技数值" sheetId="4" r:id="rId3"/>
-    <sheet name="飞行物" sheetId="2" r:id="rId4"/>
+    <sheet name="建筑数值" sheetId="5" r:id="rId4"/>
+    <sheet name="飞行物" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="332">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1180,164 @@
   </si>
   <si>
     <t>重度破坏(pohuai.png)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打生命最低的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑双倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度破坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因突变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>议事厅</t>
+  </si>
+  <si>
+    <t>农场</t>
+  </si>
+  <si>
+    <t>矿场</t>
+  </si>
+  <si>
+    <t>点兵场</t>
+  </si>
+  <si>
+    <t>训练室</t>
+  </si>
+  <si>
+    <t>锻造房</t>
+  </si>
+  <si>
+    <t>城墙</t>
+  </si>
+  <si>
+    <t>瞭望塔</t>
+  </si>
+  <si>
+    <t>少林练功房</t>
+  </si>
+  <si>
+    <t>武当练功房</t>
+  </si>
+  <si>
+    <t>全真练功房</t>
+  </si>
+  <si>
+    <t>昆仑练功房</t>
+  </si>
+  <si>
+    <t>峨眉练功房</t>
+  </si>
+  <si>
+    <t>军机处</t>
+  </si>
+  <si>
+    <t>少林藏经阁</t>
+  </si>
+  <si>
+    <t>武当太和宫</t>
+  </si>
+  <si>
+    <t>全真重阳宫</t>
+  </si>
+  <si>
+    <t>昆仑龙潭寺</t>
+  </si>
+  <si>
+    <t>峨眉华藏寺</t>
+  </si>
+  <si>
+    <t>农科院</t>
+  </si>
+  <si>
+    <t>工科院</t>
+  </si>
+  <si>
+    <t>箭塔</t>
+  </si>
+  <si>
+    <t>综合采集场</t>
+  </si>
+  <si>
+    <t>中央军事局</t>
+  </si>
+  <si>
+    <t>尖刺城墙</t>
+  </si>
+  <si>
+    <t>建筑维修站</t>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗粮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1血2价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2秒1次，1次13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究所有科技的时间-20%，提前回本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种消耗粮食-10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑钢铁消耗-40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央军事局省300铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑抗性+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑抗性+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官兵远程抗性+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1373,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1295,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1313,6 +1487,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1667,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -2529,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906E96EC-3C9B-41E2-85C7-7D65D4ADB0B5}">
-  <dimension ref="A2:R41"/>
+  <dimension ref="A2:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2682,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I41" si="0">H15*50</f>
+        <f t="shared" ref="I15:I44" si="0">H15*50</f>
         <v>500</v>
       </c>
       <c r="J15">
@@ -2763,8 +2942,8 @@
       <c r="L17">
         <v>3.2</v>
       </c>
-      <c r="N17">
-        <v>30</v>
+      <c r="N17" s="11">
+        <v>20</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -2774,590 +2953,632 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18" s="9">
+        <v>300</v>
+      </c>
+      <c r="H18" s="13">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>1.4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>350</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>287</v>
       </c>
       <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
         <v>50</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19" s="9">
-        <v>40</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="H19" s="13">
+        <v>20</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="N19" s="11">
+        <v>30</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="R19">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>282</v>
+      </c>
+      <c r="C20" t="s">
+        <v>288</v>
       </c>
       <c r="E20">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G20" s="9">
-        <v>200</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
+        <v>480</v>
+      </c>
+      <c r="H20" s="13">
+        <v>40</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>56</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="N20" s="11">
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <v>0.7</v>
+      </c>
+      <c r="R20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>200</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J20">
+      <c r="J23">
         <v>14</v>
       </c>
-      <c r="L20">
+      <c r="L23">
         <v>0.8</v>
       </c>
-      <c r="N20">
+      <c r="N23">
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="R23">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>400</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G24" s="9">
         <v>480</v>
       </c>
-      <c r="H21">
+      <c r="H24">
         <v>40</v>
       </c>
-      <c r="I21">
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>38</v>
       </c>
-      <c r="L21">
+      <c r="L24">
         <v>1.25</v>
       </c>
-      <c r="N21">
+      <c r="N24">
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="P24">
         <v>0.8</v>
       </c>
-      <c r="R21">
+      <c r="R24">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>223</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>150</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G26" s="9">
         <v>120</v>
       </c>
-      <c r="H23">
+      <c r="H26">
         <v>15</v>
       </c>
-      <c r="I23">
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="J23">
+      <c r="J26">
         <v>10</v>
       </c>
-      <c r="L23">
+      <c r="L26">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="R26">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>224</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>220</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>100</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G27" s="9">
         <v>320</v>
       </c>
-      <c r="H24">
+      <c r="H27">
         <v>32</v>
       </c>
-      <c r="I24">
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="J24">
+      <c r="J27">
         <v>12</v>
       </c>
-      <c r="L24">
+      <c r="L27">
         <v>0.75</v>
       </c>
-      <c r="N24">
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="P24">
+      <c r="P27">
         <v>1</v>
       </c>
-      <c r="R24">
+      <c r="R27">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>225</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>250</v>
       </c>
-      <c r="F25">
+      <c r="F28">
         <v>350</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G28" s="9">
         <v>720</v>
       </c>
-      <c r="H25">
+      <c r="H28">
         <v>60</v>
       </c>
-      <c r="I25">
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J25">
+      <c r="J28">
         <v>8</v>
       </c>
-      <c r="L25">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="N25">
+      <c r="N28">
         <v>12</v>
       </c>
-      <c r="P25">
+      <c r="P28">
         <v>1.2</v>
       </c>
-      <c r="R25">
+      <c r="R28">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>80</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G30" s="9">
         <v>64</v>
       </c>
-      <c r="H27">
+      <c r="H30">
         <v>8</v>
       </c>
-      <c r="I27">
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J27">
+      <c r="J30">
         <v>8</v>
       </c>
-      <c r="L27">
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="N27">
+      <c r="N30">
         <v>0</v>
       </c>
-      <c r="P27">
+      <c r="P30">
         <v>1</v>
       </c>
-      <c r="R27">
+      <c r="R30">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="E31">
         <v>100</v>
       </c>
-      <c r="F28">
+      <c r="F31">
         <v>100</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G31" s="9">
         <v>200</v>
       </c>
-      <c r="H28">
+      <c r="H31">
         <v>20</v>
       </c>
-      <c r="I28">
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J28">
+      <c r="J31">
         <v>16</v>
       </c>
-      <c r="L28">
+      <c r="L31">
         <v>1</v>
       </c>
-      <c r="N28">
+      <c r="N31">
         <v>0</v>
       </c>
-      <c r="P28">
+      <c r="P31">
         <v>1</v>
       </c>
-      <c r="R28">
+      <c r="R31">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="E29">
+      <c r="E32">
         <v>160</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>125</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G32" s="9">
         <v>285</v>
       </c>
-      <c r="H29">
+      <c r="H32">
         <v>28.8</v>
       </c>
-      <c r="I29">
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="J29">
+      <c r="J32">
         <v>14</v>
       </c>
-      <c r="L29">
+      <c r="L32">
         <v>2.5</v>
       </c>
-      <c r="N29">
-        <v>24</v>
-      </c>
-      <c r="P29">
+      <c r="N32" s="11">
+        <v>16</v>
+      </c>
+      <c r="P32">
         <v>1</v>
       </c>
-      <c r="R29">
+      <c r="R32">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>222</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>450</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G33" s="9">
         <v>540</v>
       </c>
-      <c r="H30">
+      <c r="H33">
         <v>45</v>
       </c>
-      <c r="I30">
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="J30">
+      <c r="J33">
         <v>54</v>
       </c>
-      <c r="L30">
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="N30">
+      <c r="N33">
         <v>0</v>
       </c>
-      <c r="P30">
+      <c r="P33">
         <v>0.8</v>
       </c>
-      <c r="R30">
+      <c r="R33">
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>202</v>
       </c>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>100</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G36" s="9">
         <v>80</v>
       </c>
-      <c r="H33">
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J33">
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="L33">
+      <c r="L36">
         <v>1</v>
       </c>
-      <c r="N33">
+      <c r="N36">
         <v>0</v>
       </c>
-      <c r="P33">
+      <c r="P36">
         <v>1</v>
       </c>
-      <c r="R33">
+      <c r="R36">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="E34">
-        <v>50</v>
-      </c>
-      <c r="F34">
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
         <v>150</v>
       </c>
-      <c r="G34" s="9">
-        <v>200</v>
-      </c>
-      <c r="H34">
+      <c r="G37" s="9">
+        <v>175</v>
+      </c>
+      <c r="H37">
+        <v>17.5</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="J37" s="11">
         <v>20</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="J34">
-        <v>26</v>
-      </c>
-      <c r="L34">
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="N34">
-        <v>44</v>
-      </c>
-      <c r="P34">
+      <c r="N37" s="11">
+        <v>28</v>
+      </c>
+      <c r="P37">
         <v>1.2</v>
       </c>
-      <c r="R34">
+      <c r="R37">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="E35">
+      <c r="E38">
         <v>150</v>
       </c>
-      <c r="F35">
+      <c r="F38">
         <v>250</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G38" s="9">
         <v>480</v>
       </c>
-      <c r="H35">
+      <c r="H38">
         <v>40</v>
       </c>
-      <c r="I35">
+      <c r="I38">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J35">
+      <c r="J38">
         <v>20</v>
       </c>
-      <c r="L35">
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="N35">
+      <c r="N38">
         <v>11</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="R35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <v>300</v>
-      </c>
-      <c r="G36" s="9">
-        <v>480</v>
-      </c>
-      <c r="H36">
-        <v>40</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J36">
-        <v>20</v>
-      </c>
-      <c r="L36">
-        <v>0.8</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>201</v>
-      </c>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E38">
-        <v>75</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>60</v>
-      </c>
-      <c r="H38">
-        <v>7.5</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="J38">
-        <v>6</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="R38">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G39" s="9">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="H39">
         <v>40</v>
@@ -3367,90 +3588,165 @@
         <v>2000</v>
       </c>
       <c r="J39">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L39">
-        <v>1.3</v>
-      </c>
-      <c r="N39">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
       <c r="R39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41">
+        <v>75</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>7.5</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>200</v>
+      </c>
+      <c r="G42" s="9">
+        <v>400</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>1.3</v>
+      </c>
+      <c r="N42" s="11">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="R42">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>228</v>
       </c>
-      <c r="E40">
+      <c r="E43">
         <v>720</v>
       </c>
-      <c r="F40">
+      <c r="F43">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G43" s="9">
         <v>864</v>
       </c>
-      <c r="H40">
+      <c r="H43">
         <v>72</v>
       </c>
-      <c r="I40">
+      <c r="I43">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J40">
+      <c r="J43">
         <v>36</v>
       </c>
-      <c r="L40">
+      <c r="L43">
         <v>1.5</v>
       </c>
-      <c r="N40">
+      <c r="N43">
         <v>2</v>
       </c>
-      <c r="P40">
+      <c r="P43">
         <v>0.8</v>
       </c>
-      <c r="R40">
+      <c r="R43">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>229</v>
       </c>
-      <c r="E41">
+      <c r="E44">
         <v>550</v>
       </c>
-      <c r="F41">
+      <c r="F44">
         <v>550</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G44" s="10">
         <v>1320</v>
       </c>
-      <c r="H41">
+      <c r="H44">
         <v>110</v>
       </c>
-      <c r="I41">
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="J41">
+      <c r="J44">
         <v>50</v>
       </c>
-      <c r="L41">
+      <c r="L44">
         <v>3</v>
       </c>
-      <c r="N41">
+      <c r="N44" s="14">
         <v>10</v>
       </c>
-      <c r="P41">
+      <c r="P44">
         <v>0.8</v>
       </c>
-      <c r="R41">
+      <c r="R44">
         <v>100</v>
       </c>
     </row>
@@ -3463,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA30155-A165-48B7-AEA1-1A0FF5AC597D}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3477,7 +3773,7 @@
     <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>238</v>
       </c>
@@ -3494,107 +3790,180 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>15</v>
+      </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>15</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>230</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>60</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="6">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>231</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>60</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="6">
+        <v>150</v>
+      </c>
+      <c r="F5" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>232</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>60</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="6">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>60</v>
+      </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="6">
+        <v>400</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>60</v>
+      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="6">
+        <v>400</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>45</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="6">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>45</v>
+      </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="C11" s="6">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6">
+        <v>150</v>
+      </c>
+      <c r="F11" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -3617,7 +3986,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -3640,7 +4009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -3663,7 +4032,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>233</v>
       </c>
@@ -3684,7 +4053,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -4067,61 +4436,137 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>75</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="6">
+        <v>175</v>
+      </c>
+      <c r="F33" s="6">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>269</v>
+      </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="6">
+        <v>75</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="6">
+        <v>175</v>
+      </c>
+      <c r="F34" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>279</v>
+      </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6">
+        <v>50</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="6">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>289</v>
+      </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6">
+        <v>45</v>
+      </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="6">
+        <v>100</v>
+      </c>
+      <c r="F36" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>277</v>
+      </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6">
+        <v>75</v>
+      </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="6">
+        <v>100</v>
+      </c>
+      <c r="F37" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6">
+        <v>60</v>
+      </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="6">
+        <v>250</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>268</v>
+      </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6">
+        <v>120</v>
+      </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E39" s="6">
+        <v>300</v>
+      </c>
+      <c r="F39" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="6">
+        <v>120</v>
+      </c>
+      <c r="E40" s="6">
+        <v>400</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4130,6 +4575,880 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D436C1-3AA6-4AEA-A6F2-9701F60DC18B}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="F8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <f>C2/10</f>
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>250</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <f>I2*50</f>
+        <v>1500</v>
+      </c>
+      <c r="L2">
+        <f>C2/(F2+G2)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D29" si="0">C4/10</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J3:J29" si="1">I4*50</f>
+        <v>250</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L3:L29" si="2">C4/(F4+G4)</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="O6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>150</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="11">
+        <v>150</v>
+      </c>
+      <c r="G8" s="11">
+        <v>200</v>
+      </c>
+      <c r="I8" s="11">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="O10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16">
+        <v>750</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="I16">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="O16">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="O21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>250</v>
+      </c>
+      <c r="G22">
+        <v>250</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>250</v>
+      </c>
+      <c r="G23">
+        <v>250</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="I24" s="11">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="O24">
+        <v>1000</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>750</v>
+      </c>
+      <c r="G26">
+        <v>750</v>
+      </c>
+      <c r="I26">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>600</v>
+      </c>
+      <c r="G29">
+        <v>600</v>
+      </c>
+      <c r="I29">
+        <v>55</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O29">
+        <v>2750</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F7C9-985A-4B00-AB40-36651594DA68}">
   <dimension ref="C9:J33"/>
   <sheetViews>
